--- a/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
+++ b/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\11. effectivedate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF4B786-A219-4E6D-912D-5BA9491EEFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F29BF-6907-4F38-94FA-8A3F493E3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>effectiveDate</t>
   </si>
@@ -231,7 +231,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -598,58 +598,57 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
-    <col min="45" max="49" width="2.6640625" style="1"/>
-    <col min="54" max="16384" width="2.6640625" style="1"/>
+    <col min="38" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" style="1" customWidth="1"/>
+    <col min="45" max="49" width="2.7109375" style="1"/>
+    <col min="54" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -788,7 +787,7 @@
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -812,7 +811,9 @@
         <v>49</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>50</v>

--- a/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
+++ b/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\11. effectivedate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F29BF-6907-4F38-94FA-8A3F493E3DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABD7AD-7AA9-4DC7-B164-4D740B1E158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
+++ b/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDABD7AD-7AA9-4DC7-B164-4D740B1E158F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FEAFA2-D4A1-43C8-800F-7C83A03B3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -298,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -444,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
+++ b/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457A35CC-C5ED-4911-966B-DAC1660302D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DA2CD-3FA8-42A4-8830-DBB9AEDAEB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -298,9 +298,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +338,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -444,7 +444,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
+++ b/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DA2CD-3FA8-42A4-8830-DBB9AEDAEB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7014E52-09B3-4AFA-901C-8609A899E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
+++ b/Data Files/Input Validation/11. effectivedate/Auto_EffectiveDate_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7014E52-09B3-4AFA-901C-8609A899E16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02B41A-B9F2-4165-938B-73B1571AC432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
